--- a/info-files/statistics/measures_analysis.xlsx
+++ b/info-files/statistics/measures_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\info-files\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3CA830-F229-4504-9B91-2D5C8EF2B99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DB4C8-1ABF-4537-BAD0-96F90DF64485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="720" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plots" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -183,6 +183,21 @@
   <si>
     <t>['NLD-AMPH-0028_frame166', 'NLD-AMPH-0028_frame167', 'NLD-AMPH-0028_frame347', 'NLD-AMPH-0054_frame246', 'NLD-ISALA-0065-LAD_frame400', 'NLD-ISALA-0087_frame80', 'NLD-ISALA-0089_frame400', 'NLD-ISALA-0093_frame0', 'NLD-ISALA-0093_frame120']</t>
   </si>
+  <si>
+    <t>['NLD-AMPH-0054_frame168', 'NLD-ISALA-0057_frame400', 'NLD-ISALA-0065-MO1_frame440', 'NLD-ISALA-0097_frame360', 'NLD-ISALA-0097_frame400']</t>
+  </si>
+  <si>
+    <t>['NLD-AMPH-0054_frame280', 'NLD-ISALA-0057_frame200', 'NLD-ISALA-0065-LAD_frame320', 'NLD-ISALA-0065-LAD_frame440']</t>
+  </si>
+  <si>
+    <t>['NLD-ISALA-0057_frame320', 'NLD-ISALA-0057_frame400', 'NLD-ISALA-0065-LAD_frame440', 'NLD-ISALA-0065-LAD_frame480', 'NLD-ISALA-0087_frame280', 'NLD-ISALA-0087_frame440', 'NLD-ISALA-0097_frame350', 'NLD-ISALA-0097_frame360', 'NLD-ISALA-0097_frame400']</t>
+  </si>
+  <si>
+    <t>['NLD-AMPH-0011_frame280', 'NLD-AMPH-0028_frame175', 'NLD-AMPH-0028_frame236', 'NLD-AMPH-0054_frame246', 'NLD-ISALA-0057_frame160', 'NLD-ISALA-0065-LAD_frame440', 'NLD-ISALA-0087_frame80', 'NLD-ISALA-0087_frame520', 'NLD-ISALA-0089_frame400', 'NLD-ISALA-0093_frame440']</t>
+  </si>
+  <si>
+    <t>['NLD-AMPH-0011_frame200', 'NLD-AMPH-0028_frame167', 'NLD-AMPH-0028_frame200', 'NLD-AMPH-0028_frame347', 'NLD-AMPH-0054_frame246', 'NLD-AMPH-0054_frame280', 'NLD-ISALA-0057_frame160', 'NLD-ISALA-0065-LAD_frame400', 'NLD-ISALA-0087_frame80', 'NLD-ISALA-0087_frame240', 'NLD-ISALA-0087_frame339', 'NLD-ISALA-0087_frame520', 'NLD-ISALA-0093_frame112', 'NLD-ISALA-0093_frame120', 'NLD-ISALA-0093_frame440']</t>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -277,59 +292,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -484,6 +451,20 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -592,10 +573,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Depth!$G$2:$G$9</c:f>
+              <c:f>Depth!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.75363891141907402</c:v>
                 </c:pt>
@@ -619,6 +600,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.92218129239930047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91756262751362683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,10 +634,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arc!$G$2:$G$9</c:f>
+              <c:f>Arc!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.7280707704961823</c:v>
                 </c:pt>
@@ -677,6 +661,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.6644615454509486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71999373714673565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,10 +695,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Thickness!$G$2:$G$9</c:f>
+              <c:f>Thickness!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.74665274608111376</c:v>
                 </c:pt>
@@ -735,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.80782528931977593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87418031903001758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,10 +1032,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Depth!$D$2:$D$9</c:f>
+              <c:f>Depth!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-3.896551724137931</c:v>
                 </c:pt>
@@ -1069,6 +1059,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-9.9333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,10 +1093,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arc!$D$2:$D$9</c:f>
+              <c:f>Arc!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-13.27586206896552</c:v>
                 </c:pt>
@@ -1127,6 +1120,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-9.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.9666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,10 +1154,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Thickness!$D$2:$D$9</c:f>
+              <c:f>Thickness!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-107.8275862068966</c:v>
                 </c:pt>
@@ -1185,6 +1181,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-45.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-38.200000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,10 +1491,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FCT!$D$2:$D$9</c:f>
+              <c:f>FCT!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>22.326315789473689</c:v>
                 </c:pt>
@@ -1519,6 +1518,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32.597938144329888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.020408163265309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,10 +1552,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid arc'!$D$2:$D$9</c:f>
+              <c:f>'Lipid arc'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>14.98947368421053</c:v>
                 </c:pt>
@@ -1577,6 +1579,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.1030927835051543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8775510204081631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,10 +1889,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Depth!$E$2:$E$9</c:f>
+              <c:f>Depth!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>67.619291691048105</c:v>
                 </c:pt>
@@ -1911,6 +1916,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40.945437949653048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.815106368352438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,10 +1950,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arc!$E$2:$E$9</c:f>
+              <c:f>Arc!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>21.34591384902367</c:v>
                 </c:pt>
@@ -1969,6 +1977,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>26.56072706501503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.259299717573761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,10 +2011,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Thickness!$E$2:$E$9</c:f>
+              <c:f>Thickness!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>211.24019160506839</c:v>
                 </c:pt>
@@ -2027,6 +2038,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>193.71366039136791</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.69388066757691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,10 +2348,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FCT!$E$2:$E$9</c:f>
+              <c:f>FCT!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>78.098243407061958</c:v>
                 </c:pt>
@@ -2361,6 +2375,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>133.7006704324973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142.26634833726899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,10 +2409,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid arc'!$E$2:$E$9</c:f>
+              <c:f>'Lipid arc'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>36.644090422343503</c:v>
                 </c:pt>
@@ -2419,6 +2436,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>30.273490337898171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.277210840895869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,10 +2746,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FCT!$G$2:$G$9</c:f>
+              <c:f>FCT!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.76976259414059733</c:v>
                 </c:pt>
@@ -2753,6 +2773,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.61587509501335025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54144542928344275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,10 +2807,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid arc'!$G$2:$G$9</c:f>
+              <c:f>'Lipid arc'!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.79141966663362506</c:v>
                 </c:pt>
@@ -2811,6 +2834,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.86524368317360734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84697669159435773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6593,26 +6619,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C0779FB-F60B-4DB8-9F8E-A3CAE1AC4FD6}" name="Table1" displayName="Table1" ref="A1:I8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:I8" xr:uid="{4C0779FB-F60B-4DB8-9F8E-A3CAE1AC4FD6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C0779FB-F60B-4DB8-9F8E-A3CAE1AC4FD6}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:I10" xr:uid="{4C0779FB-F60B-4DB8-9F8E-A3CAE1AC4FD6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9366F56D-35AE-4762-9B78-2DF4CDFFF528}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{3793958F-44A0-4296-88A7-B79C99292CCF}" name="FP"/>
-    <tableColumn id="3" xr3:uid="{AECA3C5E-A171-4C82-A66C-8CB76FDD2475}" name="FN"/>
-    <tableColumn id="4" xr3:uid="{21E06F1D-C9B6-4CCB-BAA6-136EC5F9B08B}" name="Mean diff"/>
-    <tableColumn id="5" xr3:uid="{C2927779-EFFA-47B6-A396-5278F1D0955D}" name="SD"/>
-    <tableColumn id="6" xr3:uid="{E61B116E-22E2-4E64-B3C9-35174766C48D}" name="Correlation"/>
-    <tableColumn id="7" xr3:uid="{275FADB5-2844-4D00-935E-0393236FB485}" name="ICC(2,1)"/>
-    <tableColumn id="8" xr3:uid="{2938A0D1-5DA8-4DE8-A680-507A77180A20}" name="Nº outliers"/>
-    <tableColumn id="9" xr3:uid="{D8F6C9B7-DD55-4160-894A-61902D72987C}" name="Outliers"/>
+    <tableColumn id="1" xr3:uid="{9366F56D-35AE-4762-9B78-2DF4CDFFF528}" name="Model" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{3793958F-44A0-4296-88A7-B79C99292CCF}" name="FP" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{AECA3C5E-A171-4C82-A66C-8CB76FDD2475}" name="FN" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{21E06F1D-C9B6-4CCB-BAA6-136EC5F9B08B}" name="Mean diff" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{C2927779-EFFA-47B6-A396-5278F1D0955D}" name="SD" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{E61B116E-22E2-4E64-B3C9-35174766C48D}" name="Correlation" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{275FADB5-2844-4D00-935E-0393236FB485}" name="ICC(2,1)" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2938A0D1-5DA8-4DE8-A680-507A77180A20}" name="Nº outliers" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{D8F6C9B7-DD55-4160-894A-61902D72987C}" name="Outliers" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEF79EA6-F5EC-495D-9ED0-4D10D8C1CAF5}" name="Table2" displayName="Table2" ref="A1:I9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:I9" xr:uid="{EEF79EA6-F5EC-495D-9ED0-4D10D8C1CAF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEF79EA6-F5EC-495D-9ED0-4D10D8C1CAF5}" name="Table2" displayName="Table2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:I10" xr:uid="{EEF79EA6-F5EC-495D-9ED0-4D10D8C1CAF5}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF5D4BBA-97F6-4C87-8100-F27B77832962}" name="Model"/>
     <tableColumn id="2" xr3:uid="{888F6BFB-0D72-4EFD-94BA-FC947113E322}" name="FP"/>
@@ -6629,8 +6655,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60D49CF7-6804-4AA2-A2E2-540BBFDB108A}" name="Table3" displayName="Table3" ref="A1:I9" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:I9" xr:uid="{60D49CF7-6804-4AA2-A2E2-540BBFDB108A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60D49CF7-6804-4AA2-A2E2-540BBFDB108A}" name="Table3" displayName="Table3" ref="A1:I10" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:I10" xr:uid="{60D49CF7-6804-4AA2-A2E2-540BBFDB108A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{248C0947-C6EA-4901-A313-181673B7A766}" name="Model"/>
     <tableColumn id="2" xr3:uid="{E8B75FCB-91B1-4FC1-B57D-C9AC99053CCE}" name="FP"/>
@@ -6647,8 +6673,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD59CF3C-7B3F-46FE-B260-23D2BC825B61}" name="Table4" displayName="Table4" ref="A1:I9" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:I9" xr:uid="{CD59CF3C-7B3F-46FE-B260-23D2BC825B61}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CD59CF3C-7B3F-46FE-B260-23D2BC825B61}" name="Table4" displayName="Table4" ref="A1:I10" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:I10" xr:uid="{CD59CF3C-7B3F-46FE-B260-23D2BC825B61}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{F4531289-D748-4AFF-A53B-819949DBB0D8}" name="Model"/>
     <tableColumn id="3" xr3:uid="{B05CF140-8576-41FF-A9A2-2E571CFE0008}" name="FP"/>
@@ -6665,8 +6691,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{037B8D8B-AC1A-49CE-843A-68A71CCC91FA}" name="Table5" displayName="Table5" ref="A1:I9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:I9" xr:uid="{037B8D8B-AC1A-49CE-843A-68A71CCC91FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{037B8D8B-AC1A-49CE-843A-68A71CCC91FA}" name="Table5" displayName="Table5" ref="A1:I10" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:I10" xr:uid="{037B8D8B-AC1A-49CE-843A-68A71CCC91FA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0E839648-FA9F-4214-A267-3B70FAC6D986}" name="Model"/>
     <tableColumn id="2" xr3:uid="{A9426F48-245E-4486-9610-90B466F33B5A}" name="FP"/>
@@ -6969,8 +6995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70696B0B-C2CD-4C6C-88DC-03D9653648B4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6982,10 +7008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7002,31 +7028,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7234,32 +7260,61 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>-9.9333333333333336</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>40.945437949653048</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>0.92493763132300488</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>0.92218129239930047</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>9</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>42.815106368352438</v>
+      </c>
+      <c r="F10">
+        <v>0.91514200371884802</v>
+      </c>
+      <c r="G10">
+        <v>0.91756262751362683</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7273,10 +7328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7525,32 +7580,61 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>-9.1666666666666661</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>26.56072706501503</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>0.69038065336090293</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>0.6644615454509486</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>-6.9666666666666668</v>
+      </c>
+      <c r="E10">
+        <v>25.259299717573761</v>
+      </c>
+      <c r="F10">
+        <v>0.73265156381831276</v>
+      </c>
+      <c r="G10">
+        <v>0.71999373714673565</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7563,10 +7647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7815,32 +7899,61 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>-45.533333333333331</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>193.71366039136791</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>0.82148295284383654</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9">
         <v>0.80782528931977593</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="E10">
+        <v>157.69388066757691</v>
+      </c>
+      <c r="F10">
+        <v>0.88161791830735758</v>
+      </c>
+      <c r="G10">
+        <v>0.87418031903001758</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7853,10 +7966,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8105,32 +8218,61 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>13</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>32.597938144329888</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>133.7006704324973</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <v>0.68346755802235815</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <v>0.61587509501335025</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>45.020408163265309</v>
+      </c>
+      <c r="E10">
+        <v>142.26634833726899</v>
+      </c>
+      <c r="F10">
+        <v>0.60807512767663197</v>
+      </c>
+      <c r="G10">
+        <v>0.54144542928344275</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8285,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8395,32 +8537,61 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>13</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>4.1030927835051543</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>30.273490337898171</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>0.87440974279815487</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9">
         <v>0.86524368317360734</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9">
         <v>9</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3.8775510204081631</v>
+      </c>
+      <c r="E10">
+        <v>33.277210840895869</v>
+      </c>
+      <c r="F10">
+        <v>0.86272785022652687</v>
+      </c>
+      <c r="G10">
+        <v>0.84697669159435773</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
